--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -8,24 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos-python\alocacao-aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA7DFA95-3998-4D66-BBA9-90235F550B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AB3E2D-47A2-42B3-9302-E14387C302B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Disponibilidades" sheetId="1" r:id="rId1"/>
+    <sheet name="Disciplinas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,19 +30,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>teste</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Dias da Semana disponíveis</t>
+  </si>
+  <si>
+    <t>Albertina</t>
+  </si>
+  <si>
+    <t>Segunda, terça e quinta</t>
+  </si>
+  <si>
+    <t>Gilvan</t>
+  </si>
+  <si>
+    <t>Segunda, terça e quarta</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Quarta, quinta e sexta</t>
+  </si>
+  <si>
+    <t>Fabiano</t>
+  </si>
+  <si>
+    <t>Patrícia</t>
+  </si>
+  <si>
+    <t>Segunda, Quarta</t>
+  </si>
+  <si>
+    <t>Verônica</t>
+  </si>
+  <si>
+    <t>Quarta e Quinta</t>
+  </si>
+  <si>
+    <t>Ely</t>
+  </si>
+  <si>
+    <t>Quarta, Quinta e sexta</t>
+  </si>
+  <si>
+    <t>Edival</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Segunda, Terça e Quarta</t>
+  </si>
+  <si>
+    <t>Erivelton</t>
+  </si>
+  <si>
+    <t>Quarta</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>quarta, quinta e sexta</t>
+  </si>
+  <si>
+    <t>Reginaldo</t>
+  </si>
+  <si>
+    <t>Quarta, Quinta, Sexta</t>
+  </si>
+  <si>
+    <t>Eluã</t>
+  </si>
+  <si>
+    <t>Segunda, Quarta, Sexta</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>terça, quarta e quinta</t>
+  </si>
+  <si>
+    <t>Curso: Técnico em Informática para Internet</t>
+  </si>
+  <si>
+    <t>Turma: 1° período</t>
+  </si>
+  <si>
+    <t>Disciplina</t>
+  </si>
+  <si>
+    <t>Sigla</t>
+  </si>
+  <si>
+    <t>Prof. da Manhã</t>
+  </si>
+  <si>
+    <t>Prof.  da Tarde</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Algoritmos e Programação de Computadores</t>
+  </si>
+  <si>
+    <t>Modelagem de Domínio e Conceitos de Orientação à Objetos</t>
+  </si>
+  <si>
+    <t>Organização de Computadores</t>
+  </si>
+  <si>
+    <t>Redes de Computadores I</t>
+  </si>
+  <si>
+    <t>Metodologia e Produção de Conhecimento na Cultura Digital</t>
+  </si>
+  <si>
+    <t>Ética na Informática</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>MDCOO</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>RCI</t>
+  </si>
+  <si>
+    <t>MPCCD</t>
+  </si>
+  <si>
+    <t>ÉI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5C5C5C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -67,12 +225,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,18 +619,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06091F16-9E89-4E46-BFD9-95F08E5C174C}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos-python\alocacao-aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AB3E2D-47A2-42B3-9302-E14387C302B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB217156-1E16-4917-A971-BD8B78FFC8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t>Professor</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Curso: Técnico em Informática para Internet</t>
   </si>
   <si>
-    <t>Turma: 1° período</t>
-  </si>
-  <si>
     <t>Disciplina</t>
   </si>
   <si>
@@ -170,7 +167,130 @@
     <t>MPCCD</t>
   </si>
   <si>
-    <t>ÉI</t>
+    <t>EI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Turma(s)/Período: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1° período</t>
+    </r>
+  </si>
+  <si>
+    <t>Projeto e Implementação de Bancos de Dados</t>
+  </si>
+  <si>
+    <t>Infraestrutura para Serviços de Internet</t>
+  </si>
+  <si>
+    <t>Redes de Computadores II</t>
+  </si>
+  <si>
+    <t>Programação Back-End I</t>
+  </si>
+  <si>
+    <t>Programação Front-End I</t>
+  </si>
+  <si>
+    <t>Inglês para Fins Específicos I</t>
+  </si>
+  <si>
+    <t>PIBD</t>
+  </si>
+  <si>
+    <t>ISI</t>
+  </si>
+  <si>
+    <t>RCII</t>
+  </si>
+  <si>
+    <t>PBEI</t>
+  </si>
+  <si>
+    <t>PFEI</t>
+  </si>
+  <si>
+    <t>IFEI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Turma(s)/Período: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2° período</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Turma(s)/Período: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3° período</t>
+    </r>
+  </si>
+  <si>
+    <t>Programação Front-End II</t>
+  </si>
+  <si>
+    <t>Programação Back-End II</t>
+  </si>
+  <si>
+    <t>Redes de Computadores III</t>
+  </si>
+  <si>
+    <t>Gerenciamento de Serviços de Tecnologia da Informação</t>
+  </si>
+  <si>
+    <t>Sociologia da Informação</t>
+  </si>
+  <si>
+    <t>Inglês para Fins Específicos II</t>
+  </si>
+  <si>
+    <t>Empreendedorismo e Projeto Final</t>
+  </si>
+  <si>
+    <t>PFII</t>
+  </si>
+  <si>
+    <t>PBII</t>
+  </si>
+  <si>
+    <t>RCIII</t>
+  </si>
+  <si>
+    <t>GSTI</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>IFEII</t>
+  </si>
+  <si>
+    <t>EPF</t>
   </si>
 </sst>
 </file>
@@ -791,10 +911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06091F16-9E89-4E46-BFD9-95F08E5C174C}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,32 +931,32 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -847,10 +967,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -861,10 +981,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -875,10 +995,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -889,10 +1009,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -903,10 +1023,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -916,7 +1036,242 @@
       </c>
       <c r="G10" s="8"/>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos-python\alocacao-aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB217156-1E16-4917-A971-BD8B78FFC8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB2D4E6-465B-4EB3-B4E9-79E6C3DCC97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +324,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF5C5C5C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -425,6 +433,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,19 +922,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06091F16-9E89-4E46-BFD9-95F08E5C174C}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -958,6 +968,9 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -972,6 +985,9 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -986,6 +1002,9 @@
       <c r="B7" t="s">
         <v>42</v>
       </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -1000,6 +1019,9 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -1014,6 +1036,9 @@
       <c r="B9" t="s">
         <v>44</v>
       </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -1027,6 +1052,9 @@
       </c>
       <c r="B10" t="s">
         <v>45</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1069,6 +1097,9 @@
       <c r="B14" t="s">
         <v>53</v>
       </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -1083,6 +1114,9 @@
       <c r="B15" t="s">
         <v>54</v>
       </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
@@ -1097,6 +1131,9 @@
       <c r="B16" t="s">
         <v>55</v>
       </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
@@ -1111,6 +1148,9 @@
       <c r="B17" t="s">
         <v>56</v>
       </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -1125,6 +1165,9 @@
       <c r="B18" t="s">
         <v>57</v>
       </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
@@ -1138,6 +1181,9 @@
       </c>
       <c r="B19" t="s">
         <v>58</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1179,6 +1225,9 @@
       <c r="B23" t="s">
         <v>68</v>
       </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -1193,6 +1242,9 @@
       <c r="B24" t="s">
         <v>69</v>
       </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
@@ -1207,6 +1259,9 @@
       <c r="B25" t="s">
         <v>70</v>
       </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
@@ -1221,6 +1276,9 @@
       <c r="B26" t="s">
         <v>71</v>
       </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
@@ -1235,6 +1293,9 @@
       <c r="B27" t="s">
         <v>72</v>
       </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
@@ -1249,6 +1310,9 @@
       <c r="B28" t="s">
         <v>73</v>
       </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
@@ -1262,6 +1326,9 @@
       </c>
       <c r="B29" t="s">
         <v>74</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
